--- a/nr-update-medu/ig/ValueSet-TypeCarteVS.xlsx
+++ b/nr-update-medu/ig/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T14:20:52+00:00</t>
+    <t>2024-11-07T14:21:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-medu/ig/ValueSet-TypeCarteVS.xlsx
+++ b/nr-update-medu/ig/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T14:21:58+00:00</t>
+    <t>2024-11-07T14:28:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-medu/ig/ValueSet-TypeCarteVS.xlsx
+++ b/nr-update-medu/ig/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T14:28:31+00:00</t>
+    <t>2024-11-07T14:34:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-medu/ig/ValueSet-TypeCarteVS.xlsx
+++ b/nr-update-medu/ig/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T14:34:30+00:00</t>
+    <t>2024-11-07T14:35:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-medu/ig/ValueSet-TypeCarteVS.xlsx
+++ b/nr-update-medu/ig/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T14:35:14+00:00</t>
+    <t>2024-11-07T14:40:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-medu/ig/ValueSet-TypeCarteVS.xlsx
+++ b/nr-update-medu/ig/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T14:40:53+00:00</t>
+    <t>2024-11-07T14:45:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
